--- a/wcsm8seleniumproject/data/ActitimeData.xlsx
+++ b/wcsm8seleniumproject/data/ActitimeData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11430" windowHeight="4200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11430" windowHeight="4200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
     <sheet name="createuser" sheetId="3" r:id="rId3"/>
+    <sheet name="Taskname" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>USENAME</t>
   </si>
@@ -82,6 +83,12 @@
   </si>
   <si>
     <t>Devkar</t>
+  </si>
+  <si>
+    <t>Taskname</t>
+  </si>
+  <si>
+    <t>test case executed</t>
   </si>
 </sst>
 </file>
@@ -563,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -615,4 +622,32 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>